--- a/src/chess_metrics.xlsx
+++ b/src/chess_metrics.xlsx
@@ -13,6 +13,7 @@
     <sheet name="King Safety Metrics" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Flank Activity" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Moves" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Analysis Metrics" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,24 +475,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Параметр</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Белые</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Чёрные</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mobility</t>
+          <t>Мобильность</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -504,7 +505,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aggression</t>
+          <t>Агрессия</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -517,7 +518,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>Взаимодействие</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -530,7 +531,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>territory</t>
+          <t>Территория</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -543,7 +544,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>Безопасность</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -556,7 +557,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>centralization</t>
+          <t>Централизация</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1404,4 +1405,110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ideal Pieces White</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>d2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ideal Pieces Black</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dangerous Pawns White</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dangerous Pawns Black</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>a5, c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Candidate Moves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Qxd6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/src/chess_metrics.xlsx
+++ b/src/chess_metrics.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="FEN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Activity Metrics" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Pawn Structure Metrics" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="King Safety Metrics" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Flank Activity" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Moves" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Analysis Metrics" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Активность" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Структура пешек" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Безопасность короля" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Стратегия" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Анализ" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Ходы" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,6 +438,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="86.39999999999999" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -471,6 +474,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.2" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -585,28 +593,33 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="21.6" customWidth="1" min="1" max="1"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+    <col width="28.8" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Параметр</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Белые</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Чёрные</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t>Проходная</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -615,7 +628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isolated</t>
+          <t>Изолированная</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -632,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>king_defenders</t>
+          <t>Защитники короля</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -649,7 +662,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>central</t>
+          <t>Центральная</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -666,7 +679,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>doubled</t>
+          <t>Сдвоенность</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -675,7 +688,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>Продвинутая</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -699,28 +712,33 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28.8" customWidth="1" min="1" max="1"/>
+    <col width="8.4" customWidth="1" min="2" max="2"/>
+    <col width="9.6" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Параметр</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Белые</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Чёрные</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pawn_cover_percent</t>
+          <t>Пешечное прикрытие</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -733,7 +751,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>in_check</t>
+          <t>Шах</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -746,7 +764,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>checkmate</t>
+          <t>Мат</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -759,7 +777,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>queens_present</t>
+          <t>Наличие ферзей</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -772,7 +790,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rank_distance_percent</t>
+          <t>Близость к своей линии</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -785,7 +803,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>freedom_percent</t>
+          <t>Свобода</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -798,7 +816,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>opponent_attacking</t>
+          <t>Атака противника</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -826,16 +844,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.8" customWidth="1" min="1" max="1"/>
+    <col width="16.8" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Категория</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>Значение</t>
         </is>
       </c>
     </row>
@@ -878,7 +900,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stage</t>
+          <t>Стадия</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -890,7 +912,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>White Material</t>
+          <t>Белые</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -900,7 +922,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Black Material</t>
+          <t>Чёрные</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -913,6 +935,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Значение</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Идеальные фигуры Белые</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Идеальные фигуры Чёрные</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Опасные пешки Белые</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>e4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Опасные пешки Чёрные</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a5, c5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ходы-кандидаты</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Qxd6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,16 +1042,20 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.4" customWidth="1" min="1" max="1"/>
+    <col width="14.4" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Белые</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Чёрные</t>
         </is>
       </c>
     </row>
@@ -1401,112 +1522,6 @@
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ideal Pieces White</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>d2</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ideal Pieces Black</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>c4</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dangerous Pawns White</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>e4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dangerous Pawns Black</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>a5, c5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Candidate Moves</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Qxd6</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
